--- a/samples/Donor Box List Template.xlsx
+++ b/samples/Donor Box List Template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsmith/IdeaProjects/nla_staff_spreadsheet_importer/samples/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5241FFC9-A935-5844-90B8-F8A940443E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="0" windowWidth="26080" windowHeight="14460" activeTab="3"/>
+    <workbookView xWindow="64840" yWindow="12300" windowWidth="40480" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOX LIST" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'BOX LIST'!$3:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">EXAMPLE!$3:$4</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
   <si>
     <t>Box No</t>
   </si>
@@ -263,12 +269,24 @@
   </si>
   <si>
     <t>Carton (Archives)</t>
+  </si>
+  <si>
+    <t>Materials Language</t>
+  </si>
+  <si>
+    <t>Materials Script</t>
+  </si>
+  <si>
+    <t>Finding Aid Language</t>
+  </si>
+  <si>
+    <t>Finding Aid Script</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -326,38 +344,45 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -917,6 +942,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1208,17 +1236,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor indexed="46"/>
   </sheetPr>
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:K176"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.1640625" style="30" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="30" customWidth="1"/>
@@ -1228,10 +1256,13 @@
     <col min="6" max="6" width="66.1640625" style="22" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" style="24" customWidth="1"/>
     <col min="8" max="8" width="30.1640625" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="30"/>
+    <col min="9" max="9" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="34" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:11" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
         <v>32</v>
       </c>
@@ -1251,9 +1282,20 @@
       <c r="G1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" ht="18" customHeight="1">
+      <c r="H1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="48"/>
       <c r="B2" s="49"/>
       <c r="C2" s="12"/>
@@ -1261,9 +1303,12 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="37"/>
-    </row>
-    <row r="3" spans="1:8" s="35" customFormat="1" ht="22" customHeight="1">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="37"/>
+    </row>
+    <row r="3" spans="1:11" s="35" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="16" t="s">
@@ -1275,7 +1320,7 @@
       <c r="G3" s="51"/>
       <c r="H3" s="52"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="35.25" customHeight="1">
+    <row r="4" spans="1:11" s="18" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
         <v>48</v>
       </c>
@@ -1301,7 +1346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="36" customFormat="1" ht="12">
+    <row r="5" spans="1:11" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="19"/>
@@ -1311,7 +1356,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" s="36" customFormat="1" ht="12">
+    <row r="6" spans="1:11" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="19"/>
@@ -1321,7 +1366,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" s="36" customFormat="1" ht="12">
+    <row r="7" spans="1:11" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="19"/>
@@ -1331,7 +1376,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" s="36" customFormat="1" ht="12">
+    <row r="8" spans="1:11" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="19"/>
@@ -1341,7 +1386,7 @@
       <c r="G8" s="32"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" s="36" customFormat="1" ht="12">
+    <row r="9" spans="1:11" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="19"/>
@@ -1351,7 +1396,7 @@
       <c r="G9" s="32"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" s="36" customFormat="1" ht="12">
+    <row r="10" spans="1:11" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="19"/>
@@ -1361,7 +1406,7 @@
       <c r="G10" s="32"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" s="36" customFormat="1" ht="12">
+    <row r="11" spans="1:11" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="19"/>
@@ -1371,7 +1416,7 @@
       <c r="G11" s="32"/>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" s="36" customFormat="1">
+    <row r="12" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="33"/>
@@ -1381,7 +1426,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8" s="36" customFormat="1">
+    <row r="13" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="33"/>
@@ -1391,7 +1436,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" s="36" customFormat="1">
+    <row r="14" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="33"/>
@@ -1401,7 +1446,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8" s="36" customFormat="1">
+    <row r="15" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="33"/>
@@ -1411,7 +1456,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:8" s="36" customFormat="1">
+    <row r="16" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="33"/>
@@ -1421,7 +1466,7 @@
       <c r="G16" s="24"/>
       <c r="H16" s="22"/>
     </row>
-    <row r="17" spans="1:8" s="36" customFormat="1">
+    <row r="17" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="33"/>
@@ -1431,7 +1476,7 @@
       <c r="G17" s="24"/>
       <c r="H17" s="22"/>
     </row>
-    <row r="18" spans="1:8" s="36" customFormat="1">
+    <row r="18" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="33"/>
@@ -1441,7 +1486,7 @@
       <c r="G18" s="24"/>
       <c r="H18" s="22"/>
     </row>
-    <row r="19" spans="1:8" s="36" customFormat="1">
+    <row r="19" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="33"/>
@@ -1451,7 +1496,7 @@
       <c r="G19" s="24"/>
       <c r="H19" s="22"/>
     </row>
-    <row r="20" spans="1:8" s="36" customFormat="1">
+    <row r="20" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="33"/>
@@ -1461,7 +1506,7 @@
       <c r="G20" s="24"/>
       <c r="H20" s="22"/>
     </row>
-    <row r="21" spans="1:8" s="36" customFormat="1" ht="18" customHeight="1">
+    <row r="21" spans="1:8" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="33"/>
@@ -1471,7 +1516,7 @@
       <c r="G21" s="24"/>
       <c r="H21" s="22"/>
     </row>
-    <row r="22" spans="1:8" s="36" customFormat="1">
+    <row r="22" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="33"/>
@@ -1481,7 +1526,7 @@
       <c r="G22" s="24"/>
       <c r="H22" s="22"/>
     </row>
-    <row r="23" spans="1:8" s="36" customFormat="1">
+    <row r="23" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="33"/>
@@ -1491,7 +1536,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="22"/>
     </row>
-    <row r="24" spans="1:8" s="36" customFormat="1">
+    <row r="24" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="33"/>
@@ -1501,7 +1546,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:8" s="36" customFormat="1">
+    <row r="25" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="33"/>
@@ -1511,7 +1556,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:8" s="36" customFormat="1">
+    <row r="26" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="33"/>
@@ -1521,7 +1566,7 @@
       <c r="G26" s="24"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:8" s="36" customFormat="1">
+    <row r="27" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="33"/>
@@ -1531,7 +1576,7 @@
       <c r="G27" s="24"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:8" s="36" customFormat="1">
+    <row r="28" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="33"/>
@@ -1541,7 +1586,7 @@
       <c r="G28" s="24"/>
       <c r="H28" s="22"/>
     </row>
-    <row r="29" spans="1:8" s="36" customFormat="1">
+    <row r="29" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="33"/>
@@ -1551,7 +1596,7 @@
       <c r="G29" s="24"/>
       <c r="H29" s="22"/>
     </row>
-    <row r="30" spans="1:8" s="36" customFormat="1">
+    <row r="30" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="33"/>
@@ -1561,7 +1606,7 @@
       <c r="G30" s="24"/>
       <c r="H30" s="22"/>
     </row>
-    <row r="31" spans="1:8" s="36" customFormat="1">
+    <row r="31" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="33"/>
@@ -1571,7 +1616,7 @@
       <c r="G31" s="24"/>
       <c r="H31" s="22"/>
     </row>
-    <row r="32" spans="1:8" s="36" customFormat="1">
+    <row r="32" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="33"/>
@@ -1581,7 +1626,7 @@
       <c r="G32" s="24"/>
       <c r="H32" s="22"/>
     </row>
-    <row r="33" spans="1:8" s="36" customFormat="1">
+    <row r="33" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="33"/>
@@ -1591,7 +1636,7 @@
       <c r="G33" s="24"/>
       <c r="H33" s="22"/>
     </row>
-    <row r="34" spans="1:8" s="36" customFormat="1">
+    <row r="34" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="33"/>
@@ -1601,7 +1646,7 @@
       <c r="G34" s="24"/>
       <c r="H34" s="22"/>
     </row>
-    <row r="35" spans="1:8" s="36" customFormat="1">
+    <row r="35" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="33"/>
@@ -1611,7 +1656,7 @@
       <c r="G35" s="24"/>
       <c r="H35" s="22"/>
     </row>
-    <row r="36" spans="1:8" s="36" customFormat="1">
+    <row r="36" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="33"/>
@@ -1621,7 +1666,7 @@
       <c r="G36" s="24"/>
       <c r="H36" s="22"/>
     </row>
-    <row r="37" spans="1:8" s="36" customFormat="1">
+    <row r="37" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="33"/>
@@ -1631,7 +1676,7 @@
       <c r="G37" s="24"/>
       <c r="H37" s="22"/>
     </row>
-    <row r="38" spans="1:8" s="36" customFormat="1">
+    <row r="38" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="33"/>
@@ -1641,7 +1686,7 @@
       <c r="G38" s="24"/>
       <c r="H38" s="22"/>
     </row>
-    <row r="39" spans="1:8" s="36" customFormat="1">
+    <row r="39" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="33"/>
@@ -1651,7 +1696,7 @@
       <c r="G39" s="24"/>
       <c r="H39" s="22"/>
     </row>
-    <row r="40" spans="1:8" s="36" customFormat="1">
+    <row r="40" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="33"/>
@@ -1661,7 +1706,7 @@
       <c r="G40" s="24"/>
       <c r="H40" s="22"/>
     </row>
-    <row r="41" spans="1:8" s="36" customFormat="1">
+    <row r="41" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="33"/>
@@ -1671,7 +1716,7 @@
       <c r="G41" s="24"/>
       <c r="H41" s="22"/>
     </row>
-    <row r="42" spans="1:8" s="36" customFormat="1">
+    <row r="42" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="33"/>
@@ -1681,7 +1726,7 @@
       <c r="G42" s="24"/>
       <c r="H42" s="22"/>
     </row>
-    <row r="43" spans="1:8" s="36" customFormat="1">
+    <row r="43" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="33"/>
@@ -1691,7 +1736,7 @@
       <c r="G43" s="24"/>
       <c r="H43" s="22"/>
     </row>
-    <row r="44" spans="1:8" s="36" customFormat="1">
+    <row r="44" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="33"/>
@@ -1701,7 +1746,7 @@
       <c r="G44" s="24"/>
       <c r="H44" s="22"/>
     </row>
-    <row r="45" spans="1:8" s="36" customFormat="1">
+    <row r="45" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="33"/>
@@ -1711,7 +1756,7 @@
       <c r="G45" s="24"/>
       <c r="H45" s="22"/>
     </row>
-    <row r="46" spans="1:8" s="36" customFormat="1">
+    <row r="46" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="33"/>
@@ -1721,7 +1766,7 @@
       <c r="G46" s="24"/>
       <c r="H46" s="22"/>
     </row>
-    <row r="47" spans="1:8" s="36" customFormat="1">
+    <row r="47" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="33"/>
@@ -1731,7 +1776,7 @@
       <c r="G47" s="24"/>
       <c r="H47" s="22"/>
     </row>
-    <row r="48" spans="1:8" s="36" customFormat="1">
+    <row r="48" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="33"/>
@@ -1741,7 +1786,7 @@
       <c r="G48" s="24"/>
       <c r="H48" s="22"/>
     </row>
-    <row r="49" spans="1:8" s="36" customFormat="1">
+    <row r="49" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="33"/>
@@ -1751,7 +1796,7 @@
       <c r="G49" s="24"/>
       <c r="H49" s="22"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="28"/>
@@ -1759,7 +1804,7 @@
       <c r="F50" s="27"/>
       <c r="H50" s="29"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="28"/>
@@ -1767,14 +1812,14 @@
       <c r="F51" s="27"/>
       <c r="H51" s="29"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="D52" s="28"/>
       <c r="F52" s="27"/>
       <c r="H52" s="29"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="28"/>
@@ -1782,7 +1827,7 @@
       <c r="F53" s="27"/>
       <c r="H53" s="29"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="28"/>
@@ -1790,7 +1835,7 @@
       <c r="F54" s="27"/>
       <c r="H54" s="29"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="28"/>
@@ -1798,7 +1843,7 @@
       <c r="F55" s="27"/>
       <c r="H55" s="29"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="28"/>
@@ -1806,7 +1851,7 @@
       <c r="F56" s="27"/>
       <c r="H56" s="29"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="28"/>
@@ -1814,7 +1859,7 @@
       <c r="F57" s="27"/>
       <c r="H57" s="29"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="28"/>
@@ -1822,7 +1867,7 @@
       <c r="F58" s="27"/>
       <c r="H58" s="29"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="28"/>
@@ -1830,7 +1875,7 @@
       <c r="F59" s="27"/>
       <c r="H59" s="29"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="28"/>
@@ -1838,7 +1883,7 @@
       <c r="F60" s="27"/>
       <c r="H60" s="29"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="28"/>
@@ -1846,7 +1891,7 @@
       <c r="F61" s="27"/>
       <c r="H61" s="29"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="28"/>
@@ -1854,7 +1899,7 @@
       <c r="F62" s="27"/>
       <c r="H62" s="29"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="28"/>
@@ -1862,7 +1907,7 @@
       <c r="F63" s="27"/>
       <c r="H63" s="29"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="28"/>
@@ -1870,7 +1915,7 @@
       <c r="F64" s="27"/>
       <c r="H64" s="29"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="28"/>
@@ -1878,7 +1923,7 @@
       <c r="F65" s="27"/>
       <c r="H65" s="29"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="28"/>
@@ -1886,7 +1931,7 @@
       <c r="F66" s="27"/>
       <c r="H66" s="29"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="28"/>
@@ -1894,7 +1939,7 @@
       <c r="F67" s="27"/>
       <c r="H67" s="29"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="28"/>
@@ -1902,7 +1947,7 @@
       <c r="F68" s="27"/>
       <c r="H68" s="29"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="28"/>
@@ -1910,7 +1955,7 @@
       <c r="F69" s="27"/>
       <c r="H69" s="29"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="28"/>
@@ -1918,7 +1963,7 @@
       <c r="F70" s="27"/>
       <c r="H70" s="29"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="28"/>
@@ -1926,7 +1971,7 @@
       <c r="F71" s="27"/>
       <c r="H71" s="29"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="39"/>
       <c r="B72" s="39"/>
       <c r="C72" s="28"/>
@@ -1934,7 +1979,7 @@
       <c r="F72" s="27"/>
       <c r="H72" s="29"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="28"/>
@@ -1942,7 +1987,7 @@
       <c r="F73" s="27"/>
       <c r="H73" s="29"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="28"/>
@@ -1950,7 +1995,7 @@
       <c r="F74" s="27"/>
       <c r="H74" s="29"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="28"/>
@@ -1958,7 +2003,7 @@
       <c r="F75" s="27"/>
       <c r="H75" s="29"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="28"/>
@@ -1966,690 +2011,690 @@
       <c r="F76" s="27"/>
       <c r="H76" s="29"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
       <c r="H77" s="29"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
       <c r="H78" s="29"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
       <c r="H79" s="29"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
       <c r="H80" s="29"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
       <c r="H81" s="29"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
       <c r="H82" s="29"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
       <c r="H83" s="29"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
       <c r="H84" s="29"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
       <c r="H85" s="29"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
       <c r="H86" s="29"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
       <c r="H87" s="29"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="39"/>
       <c r="B88" s="39"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
       <c r="H88" s="29"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
       <c r="H89" s="29"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
       <c r="H90" s="29"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="39"/>
       <c r="B91" s="39"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
       <c r="H91" s="29"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="39"/>
       <c r="B92" s="39"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
       <c r="H92" s="29"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="39"/>
       <c r="B93" s="39"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
       <c r="H93" s="29"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="39"/>
       <c r="B94" s="39"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
       <c r="H94" s="29"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="39"/>
       <c r="B95" s="39"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
       <c r="H95" s="29"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="39"/>
       <c r="B96" s="39"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
       <c r="H96" s="29"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="39"/>
       <c r="B97" s="39"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
       <c r="H97" s="29"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="39"/>
       <c r="B98" s="39"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
       <c r="H98" s="29"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="39"/>
       <c r="B99" s="39"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
       <c r="H99" s="29"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="39"/>
       <c r="B100" s="39"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
       <c r="H100" s="29"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="39"/>
       <c r="B101" s="39"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
       <c r="H101" s="29"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="39"/>
       <c r="B102" s="39"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
       <c r="H102" s="29"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="39"/>
       <c r="B103" s="39"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
       <c r="H103" s="29"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="39"/>
       <c r="B104" s="39"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
       <c r="H104" s="29"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="39"/>
       <c r="B105" s="39"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
       <c r="H105" s="29"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="39"/>
       <c r="B106" s="39"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
       <c r="H106" s="29"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="39"/>
       <c r="B107" s="39"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
       <c r="H107" s="29"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" s="39"/>
       <c r="B108" s="39"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
       <c r="H108" s="29"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" s="39"/>
       <c r="B109" s="39"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
       <c r="H109" s="29"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" s="39"/>
       <c r="B110" s="39"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
       <c r="H110" s="29"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="39"/>
       <c r="B111" s="39"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
       <c r="H111" s="29"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" s="39"/>
       <c r="B112" s="39"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
       <c r="H112" s="29"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="39"/>
       <c r="B113" s="39"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
       <c r="H113" s="29"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" s="39"/>
       <c r="B114" s="39"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
       <c r="H114" s="29"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" s="39"/>
       <c r="B115" s="39"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
       <c r="H115" s="29"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="39"/>
       <c r="B116" s="39"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
       <c r="H116" s="29"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="39"/>
       <c r="B117" s="39"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
       <c r="H117" s="29"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="39"/>
       <c r="B118" s="39"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
       <c r="H118" s="29"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="39"/>
       <c r="B119" s="39"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
       <c r="H119" s="29"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="39"/>
       <c r="B120" s="39"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
       <c r="H120" s="29"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" s="39"/>
       <c r="B121" s="39"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
       <c r="H121" s="29"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122" s="39"/>
       <c r="B122" s="39"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
       <c r="H122" s="29"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" s="39"/>
       <c r="B123" s="39"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
       <c r="H123" s="29"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124" s="39"/>
       <c r="B124" s="39"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
       <c r="H124" s="29"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="39"/>
       <c r="B125" s="39"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
       <c r="H125" s="29"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126" s="39"/>
       <c r="B126" s="39"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
       <c r="H126" s="29"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" s="39"/>
       <c r="B127" s="39"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
       <c r="H127" s="29"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128" s="39"/>
       <c r="B128" s="39"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
       <c r="H128" s="29"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129" s="39"/>
       <c r="B129" s="39"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
       <c r="H129" s="29"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130" s="39"/>
       <c r="B130" s="39"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
       <c r="H130" s="29"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131" s="39"/>
       <c r="B131" s="39"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
       <c r="H131" s="29"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132" s="39"/>
       <c r="B132" s="39"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
       <c r="H132" s="29"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133" s="39"/>
       <c r="B133" s="39"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
       <c r="H133" s="29"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A134" s="39"/>
       <c r="B134" s="39"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
       <c r="H134" s="29"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A135" s="39"/>
       <c r="B135" s="39"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
       <c r="H135" s="29"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A136" s="39"/>
       <c r="B136" s="39"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
       <c r="H136" s="29"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137" s="39"/>
       <c r="B137" s="39"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
       <c r="H137" s="29"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A138" s="39"/>
       <c r="B138" s="39"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
       <c r="H138" s="29"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139" s="39"/>
       <c r="B139" s="39"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
       <c r="H139" s="29"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A140" s="39"/>
       <c r="B140" s="39"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
       <c r="H140" s="29"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141" s="39"/>
       <c r="B141" s="39"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
       <c r="H141" s="29"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142" s="39"/>
       <c r="B142" s="39"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
       <c r="H142" s="29"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143" s="39"/>
       <c r="B143" s="39"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
       <c r="H143" s="29"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A144" s="39"/>
       <c r="B144" s="39"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
       <c r="H144" s="29"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A145" s="39"/>
       <c r="B145" s="39"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
       <c r="H145" s="29"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146" s="39"/>
       <c r="B146" s="39"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
       <c r="H146" s="29"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A147" s="39"/>
       <c r="B147" s="39"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
       <c r="H147" s="29"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A148" s="39"/>
       <c r="B148" s="39"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
       <c r="H148" s="29"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A149" s="39"/>
       <c r="B149" s="39"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
       <c r="H149" s="29"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A150" s="39"/>
       <c r="B150" s="39"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
       <c r="H150" s="29"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A151" s="39"/>
       <c r="B151" s="39"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
       <c r="H151" s="29"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A152" s="39"/>
       <c r="B152" s="39"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
       <c r="H152" s="29"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A153" s="39"/>
       <c r="B153" s="39"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
       <c r="H153" s="29"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A154" s="39"/>
       <c r="B154" s="39"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
       <c r="H154" s="29"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A155" s="39"/>
       <c r="B155" s="39"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
       <c r="H155" s="29"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A156" s="39"/>
       <c r="B156" s="39"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
       <c r="H156" s="29"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A157" s="39"/>
       <c r="B157" s="39"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
       <c r="H157" s="29"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A158" s="39"/>
       <c r="B158" s="39"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
       <c r="H158" s="29"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A159" s="39"/>
       <c r="B159" s="39"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
       <c r="H159" s="29"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A160" s="39"/>
       <c r="B160" s="39"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
       <c r="H160" s="29"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A161" s="39"/>
       <c r="B161" s="39"/>
       <c r="C161" s="28"/>
       <c r="D161" s="28"/>
       <c r="H161" s="29"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A162" s="39"/>
       <c r="B162" s="39"/>
       <c r="C162" s="28"/>
       <c r="D162" s="28"/>
       <c r="H162" s="29"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A163" s="39"/>
       <c r="B163" s="39"/>
       <c r="C163" s="28"/>
       <c r="D163" s="28"/>
       <c r="H163" s="29"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A164" s="39"/>
       <c r="B164" s="39"/>
       <c r="C164" s="28"/>
       <c r="D164" s="28"/>
       <c r="H164" s="29"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A165" s="39"/>
       <c r="B165" s="39"/>
       <c r="C165" s="28"/>
       <c r="D165" s="28"/>
       <c r="H165" s="29"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A166" s="39"/>
       <c r="B166" s="39"/>
       <c r="C166" s="28"/>
       <c r="D166" s="28"/>
       <c r="H166" s="29"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A167" s="39"/>
       <c r="B167" s="39"/>
       <c r="C167" s="28"/>
       <c r="D167" s="28"/>
       <c r="H167" s="29"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A168" s="39"/>
       <c r="B168" s="39"/>
       <c r="C168" s="28"/>
       <c r="D168" s="28"/>
       <c r="H168" s="29"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A169" s="39"/>
       <c r="B169" s="39"/>
       <c r="C169" s="28"/>
       <c r="D169" s="28"/>
       <c r="H169" s="29"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A170" s="39"/>
       <c r="B170" s="39"/>
       <c r="C170" s="28"/>
       <c r="D170" s="28"/>
       <c r="H170" s="29"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A171" s="39"/>
       <c r="B171" s="39"/>
       <c r="H171" s="29"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A172" s="39"/>
       <c r="B172" s="39"/>
       <c r="H172" s="29"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A173" s="39"/>
       <c r="B173" s="39"/>
       <c r="H173" s="29"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A174" s="39"/>
       <c r="B174" s="39"/>
       <c r="H174" s="29"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A175" s="39"/>
       <c r="B175" s="39"/>
       <c r="H175" s="29"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A176" s="39"/>
       <c r="B176" s="39"/>
       <c r="H176" s="29"/>
@@ -2670,7 +2715,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'Container Profiles'!$B$4:$B$30</xm:f>
           </x14:formula1>
@@ -2686,8 +2731,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:H176"/>
@@ -2696,7 +2741,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.1640625" style="30" customWidth="1"/>
     <col min="2" max="2" width="12" style="30" bestFit="1" customWidth="1"/>
@@ -2709,7 +2754,7 @@
     <col min="9" max="16384" width="9.1640625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="34" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:8" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
         <v>32</v>
       </c>
@@ -2731,7 +2776,7 @@
       </c>
       <c r="H1" s="38"/>
     </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="48"/>
       <c r="B2" s="49"/>
       <c r="C2" s="12"/>
@@ -2741,7 +2786,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="37"/>
     </row>
-    <row r="3" spans="1:8" s="35" customFormat="1" ht="22" customHeight="1">
+    <row r="3" spans="1:8" s="35" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="53" t="s">
         <v>48</v>
       </c>
@@ -2759,7 +2804,7 @@
       <c r="G3" s="51"/>
       <c r="H3" s="52"/>
     </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="35.25" customHeight="1">
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="54"/>
       <c r="B4" s="54"/>
       <c r="C4" s="17" t="s">
@@ -2781,7 +2826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="36" customFormat="1" ht="12">
+    <row r="5" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="19" t="s">
@@ -2801,7 +2846,7 @@
       </c>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:8" s="36" customFormat="1" ht="12">
+    <row r="6" spans="1:8" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="19" t="s">
@@ -2819,7 +2864,7 @@
       </c>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" s="36" customFormat="1" ht="12">
+    <row r="7" spans="1:8" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="19" t="s">
@@ -2837,7 +2882,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" s="36" customFormat="1" ht="12">
+    <row r="8" spans="1:8" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="19" t="s">
@@ -2855,7 +2900,7 @@
       </c>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" s="36" customFormat="1" ht="36">
+    <row r="9" spans="1:8" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="19" t="s">
@@ -2875,7 +2920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="36" customFormat="1" ht="12">
+    <row r="10" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="19" t="s">
@@ -2895,7 +2940,7 @@
       </c>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" s="36" customFormat="1" ht="12">
+    <row r="11" spans="1:8" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="19" t="s">
@@ -2913,7 +2958,7 @@
       </c>
       <c r="H11" s="21"/>
     </row>
-    <row r="12" spans="1:8" s="36" customFormat="1">
+    <row r="12" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="33"/>
@@ -2923,7 +2968,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8" s="36" customFormat="1">
+    <row r="13" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="33"/>
@@ -2933,7 +2978,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" s="36" customFormat="1">
+    <row r="14" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="33"/>
@@ -2943,7 +2988,7 @@
       <c r="G14" s="24"/>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8" s="36" customFormat="1">
+    <row r="15" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="33"/>
@@ -2953,7 +2998,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:8" s="36" customFormat="1">
+    <row r="16" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="33"/>
@@ -2963,7 +3008,7 @@
       <c r="G16" s="24"/>
       <c r="H16" s="22"/>
     </row>
-    <row r="17" spans="1:8" s="36" customFormat="1">
+    <row r="17" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="33"/>
@@ -2973,7 +3018,7 @@
       <c r="G17" s="24"/>
       <c r="H17" s="22"/>
     </row>
-    <row r="18" spans="1:8" s="36" customFormat="1">
+    <row r="18" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="33"/>
@@ -2983,7 +3028,7 @@
       <c r="G18" s="24"/>
       <c r="H18" s="22"/>
     </row>
-    <row r="19" spans="1:8" s="36" customFormat="1">
+    <row r="19" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="33"/>
@@ -2993,7 +3038,7 @@
       <c r="G19" s="24"/>
       <c r="H19" s="22"/>
     </row>
-    <row r="20" spans="1:8" s="36" customFormat="1">
+    <row r="20" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="33"/>
@@ -3003,7 +3048,7 @@
       <c r="G20" s="24"/>
       <c r="H20" s="22"/>
     </row>
-    <row r="21" spans="1:8" s="36" customFormat="1" ht="18" customHeight="1">
+    <row r="21" spans="1:8" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="33"/>
@@ -3013,7 +3058,7 @@
       <c r="G21" s="24"/>
       <c r="H21" s="22"/>
     </row>
-    <row r="22" spans="1:8" s="36" customFormat="1">
+    <row r="22" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="33"/>
@@ -3023,7 +3068,7 @@
       <c r="G22" s="24"/>
       <c r="H22" s="22"/>
     </row>
-    <row r="23" spans="1:8" s="36" customFormat="1">
+    <row r="23" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="33"/>
@@ -3033,7 +3078,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="22"/>
     </row>
-    <row r="24" spans="1:8" s="36" customFormat="1">
+    <row r="24" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="33"/>
@@ -3043,7 +3088,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:8" s="36" customFormat="1">
+    <row r="25" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="33"/>
@@ -3053,7 +3098,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" spans="1:8" s="36" customFormat="1">
+    <row r="26" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="33"/>
@@ -3063,7 +3108,7 @@
       <c r="G26" s="24"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" spans="1:8" s="36" customFormat="1">
+    <row r="27" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="33"/>
@@ -3073,7 +3118,7 @@
       <c r="G27" s="24"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:8" s="36" customFormat="1">
+    <row r="28" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="33"/>
@@ -3083,7 +3128,7 @@
       <c r="G28" s="24"/>
       <c r="H28" s="22"/>
     </row>
-    <row r="29" spans="1:8" s="36" customFormat="1">
+    <row r="29" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="33"/>
@@ -3093,7 +3138,7 @@
       <c r="G29" s="24"/>
       <c r="H29" s="22"/>
     </row>
-    <row r="30" spans="1:8" s="36" customFormat="1">
+    <row r="30" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="33"/>
@@ -3103,7 +3148,7 @@
       <c r="G30" s="24"/>
       <c r="H30" s="22"/>
     </row>
-    <row r="31" spans="1:8" s="36" customFormat="1">
+    <row r="31" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="33"/>
@@ -3113,7 +3158,7 @@
       <c r="G31" s="24"/>
       <c r="H31" s="22"/>
     </row>
-    <row r="32" spans="1:8" s="36" customFormat="1">
+    <row r="32" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="33"/>
@@ -3123,7 +3168,7 @@
       <c r="G32" s="24"/>
       <c r="H32" s="22"/>
     </row>
-    <row r="33" spans="1:8" s="36" customFormat="1">
+    <row r="33" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="33"/>
@@ -3133,7 +3178,7 @@
       <c r="G33" s="24"/>
       <c r="H33" s="22"/>
     </row>
-    <row r="34" spans="1:8" s="36" customFormat="1">
+    <row r="34" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="33"/>
@@ -3143,7 +3188,7 @@
       <c r="G34" s="24"/>
       <c r="H34" s="22"/>
     </row>
-    <row r="35" spans="1:8" s="36" customFormat="1">
+    <row r="35" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="33"/>
@@ -3153,7 +3198,7 @@
       <c r="G35" s="24"/>
       <c r="H35" s="22"/>
     </row>
-    <row r="36" spans="1:8" s="36" customFormat="1">
+    <row r="36" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="33"/>
@@ -3163,7 +3208,7 @@
       <c r="G36" s="24"/>
       <c r="H36" s="22"/>
     </row>
-    <row r="37" spans="1:8" s="36" customFormat="1">
+    <row r="37" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="33"/>
@@ -3173,7 +3218,7 @@
       <c r="G37" s="24"/>
       <c r="H37" s="22"/>
     </row>
-    <row r="38" spans="1:8" s="36" customFormat="1">
+    <row r="38" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="33"/>
@@ -3183,7 +3228,7 @@
       <c r="G38" s="24"/>
       <c r="H38" s="22"/>
     </row>
-    <row r="39" spans="1:8" s="36" customFormat="1">
+    <row r="39" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="33"/>
@@ -3193,7 +3238,7 @@
       <c r="G39" s="24"/>
       <c r="H39" s="22"/>
     </row>
-    <row r="40" spans="1:8" s="36" customFormat="1">
+    <row r="40" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="33"/>
@@ -3203,7 +3248,7 @@
       <c r="G40" s="24"/>
       <c r="H40" s="22"/>
     </row>
-    <row r="41" spans="1:8" s="36" customFormat="1">
+    <row r="41" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="33"/>
@@ -3213,7 +3258,7 @@
       <c r="G41" s="24"/>
       <c r="H41" s="22"/>
     </row>
-    <row r="42" spans="1:8" s="36" customFormat="1">
+    <row r="42" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="33"/>
@@ -3223,7 +3268,7 @@
       <c r="G42" s="24"/>
       <c r="H42" s="22"/>
     </row>
-    <row r="43" spans="1:8" s="36" customFormat="1">
+    <row r="43" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="33"/>
@@ -3233,7 +3278,7 @@
       <c r="G43" s="24"/>
       <c r="H43" s="22"/>
     </row>
-    <row r="44" spans="1:8" s="36" customFormat="1">
+    <row r="44" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="33"/>
@@ -3243,7 +3288,7 @@
       <c r="G44" s="24"/>
       <c r="H44" s="22"/>
     </row>
-    <row r="45" spans="1:8" s="36" customFormat="1">
+    <row r="45" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="33"/>
@@ -3253,7 +3298,7 @@
       <c r="G45" s="24"/>
       <c r="H45" s="22"/>
     </row>
-    <row r="46" spans="1:8" s="36" customFormat="1">
+    <row r="46" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="33"/>
@@ -3263,7 +3308,7 @@
       <c r="G46" s="24"/>
       <c r="H46" s="22"/>
     </row>
-    <row r="47" spans="1:8" s="36" customFormat="1">
+    <row r="47" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="33"/>
@@ -3273,7 +3318,7 @@
       <c r="G47" s="24"/>
       <c r="H47" s="22"/>
     </row>
-    <row r="48" spans="1:8" s="36" customFormat="1">
+    <row r="48" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="33"/>
@@ -3283,7 +3328,7 @@
       <c r="G48" s="24"/>
       <c r="H48" s="22"/>
     </row>
-    <row r="49" spans="1:8" s="36" customFormat="1">
+    <row r="49" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="33"/>
@@ -3293,7 +3338,7 @@
       <c r="G49" s="24"/>
       <c r="H49" s="22"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="28"/>
@@ -3301,7 +3346,7 @@
       <c r="F50" s="27"/>
       <c r="H50" s="29"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="28"/>
@@ -3309,14 +3354,14 @@
       <c r="F51" s="27"/>
       <c r="H51" s="29"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="D52" s="28"/>
       <c r="F52" s="27"/>
       <c r="H52" s="29"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="28"/>
@@ -3324,7 +3369,7 @@
       <c r="F53" s="27"/>
       <c r="H53" s="29"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="28"/>
@@ -3332,7 +3377,7 @@
       <c r="F54" s="27"/>
       <c r="H54" s="29"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="28"/>
@@ -3340,7 +3385,7 @@
       <c r="F55" s="27"/>
       <c r="H55" s="29"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="28"/>
@@ -3348,7 +3393,7 @@
       <c r="F56" s="27"/>
       <c r="H56" s="29"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="28"/>
@@ -3356,7 +3401,7 @@
       <c r="F57" s="27"/>
       <c r="H57" s="29"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="28"/>
@@ -3364,7 +3409,7 @@
       <c r="F58" s="27"/>
       <c r="H58" s="29"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="28"/>
@@ -3372,7 +3417,7 @@
       <c r="F59" s="27"/>
       <c r="H59" s="29"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="28"/>
@@ -3380,7 +3425,7 @@
       <c r="F60" s="27"/>
       <c r="H60" s="29"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="28"/>
@@ -3388,7 +3433,7 @@
       <c r="F61" s="27"/>
       <c r="H61" s="29"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="28"/>
@@ -3396,7 +3441,7 @@
       <c r="F62" s="27"/>
       <c r="H62" s="29"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="28"/>
@@ -3404,7 +3449,7 @@
       <c r="F63" s="27"/>
       <c r="H63" s="29"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="28"/>
@@ -3412,7 +3457,7 @@
       <c r="F64" s="27"/>
       <c r="H64" s="29"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="28"/>
@@ -3420,7 +3465,7 @@
       <c r="F65" s="27"/>
       <c r="H65" s="29"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="28"/>
@@ -3428,7 +3473,7 @@
       <c r="F66" s="27"/>
       <c r="H66" s="29"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="28"/>
@@ -3436,7 +3481,7 @@
       <c r="F67" s="27"/>
       <c r="H67" s="29"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="28"/>
@@ -3444,7 +3489,7 @@
       <c r="F68" s="27"/>
       <c r="H68" s="29"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="28"/>
@@ -3452,7 +3497,7 @@
       <c r="F69" s="27"/>
       <c r="H69" s="29"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="28"/>
@@ -3460,7 +3505,7 @@
       <c r="F70" s="27"/>
       <c r="H70" s="29"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="28"/>
@@ -3468,7 +3513,7 @@
       <c r="F71" s="27"/>
       <c r="H71" s="29"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="39"/>
       <c r="B72" s="39"/>
       <c r="C72" s="28"/>
@@ -3476,7 +3521,7 @@
       <c r="F72" s="27"/>
       <c r="H72" s="29"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="28"/>
@@ -3484,7 +3529,7 @@
       <c r="F73" s="27"/>
       <c r="H73" s="29"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="28"/>
@@ -3492,7 +3537,7 @@
       <c r="F74" s="27"/>
       <c r="H74" s="29"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="28"/>
@@ -3500,7 +3545,7 @@
       <c r="F75" s="27"/>
       <c r="H75" s="29"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="28"/>
@@ -3508,690 +3553,690 @@
       <c r="F76" s="27"/>
       <c r="H76" s="29"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
       <c r="H77" s="29"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
       <c r="H78" s="29"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
       <c r="H79" s="29"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
       <c r="H80" s="29"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
       <c r="H81" s="29"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
       <c r="H82" s="29"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
       <c r="H83" s="29"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
       <c r="H84" s="29"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
       <c r="H85" s="29"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
       <c r="H86" s="29"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
       <c r="H87" s="29"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="39"/>
       <c r="B88" s="39"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
       <c r="H88" s="29"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
       <c r="H89" s="29"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
       <c r="H90" s="29"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="39"/>
       <c r="B91" s="39"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
       <c r="H91" s="29"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="39"/>
       <c r="B92" s="39"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
       <c r="H92" s="29"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="39"/>
       <c r="B93" s="39"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
       <c r="H93" s="29"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="39"/>
       <c r="B94" s="39"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
       <c r="H94" s="29"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="39"/>
       <c r="B95" s="39"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
       <c r="H95" s="29"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="39"/>
       <c r="B96" s="39"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
       <c r="H96" s="29"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="39"/>
       <c r="B97" s="39"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
       <c r="H97" s="29"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="39"/>
       <c r="B98" s="39"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
       <c r="H98" s="29"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="39"/>
       <c r="B99" s="39"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
       <c r="H99" s="29"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="39"/>
       <c r="B100" s="39"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
       <c r="H100" s="29"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="39"/>
       <c r="B101" s="39"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
       <c r="H101" s="29"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="39"/>
       <c r="B102" s="39"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
       <c r="H102" s="29"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="39"/>
       <c r="B103" s="39"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
       <c r="H103" s="29"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="39"/>
       <c r="B104" s="39"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
       <c r="H104" s="29"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="39"/>
       <c r="B105" s="39"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
       <c r="H105" s="29"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="39"/>
       <c r="B106" s="39"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
       <c r="H106" s="29"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="39"/>
       <c r="B107" s="39"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
       <c r="H107" s="29"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" s="39"/>
       <c r="B108" s="39"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
       <c r="H108" s="29"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" s="39"/>
       <c r="B109" s="39"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
       <c r="H109" s="29"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" s="39"/>
       <c r="B110" s="39"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
       <c r="H110" s="29"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="39"/>
       <c r="B111" s="39"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
       <c r="H111" s="29"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" s="39"/>
       <c r="B112" s="39"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
       <c r="H112" s="29"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="39"/>
       <c r="B113" s="39"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
       <c r="H113" s="29"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" s="39"/>
       <c r="B114" s="39"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
       <c r="H114" s="29"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" s="39"/>
       <c r="B115" s="39"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
       <c r="H115" s="29"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="39"/>
       <c r="B116" s="39"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
       <c r="H116" s="29"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="39"/>
       <c r="B117" s="39"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
       <c r="H117" s="29"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="39"/>
       <c r="B118" s="39"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
       <c r="H118" s="29"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="39"/>
       <c r="B119" s="39"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
       <c r="H119" s="29"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="39"/>
       <c r="B120" s="39"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
       <c r="H120" s="29"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" s="39"/>
       <c r="B121" s="39"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
       <c r="H121" s="29"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122" s="39"/>
       <c r="B122" s="39"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
       <c r="H122" s="29"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" s="39"/>
       <c r="B123" s="39"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
       <c r="H123" s="29"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124" s="39"/>
       <c r="B124" s="39"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
       <c r="H124" s="29"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="39"/>
       <c r="B125" s="39"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
       <c r="H125" s="29"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126" s="39"/>
       <c r="B126" s="39"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
       <c r="H126" s="29"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" s="39"/>
       <c r="B127" s="39"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
       <c r="H127" s="29"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128" s="39"/>
       <c r="B128" s="39"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
       <c r="H128" s="29"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129" s="39"/>
       <c r="B129" s="39"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
       <c r="H129" s="29"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130" s="39"/>
       <c r="B130" s="39"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
       <c r="H130" s="29"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131" s="39"/>
       <c r="B131" s="39"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
       <c r="H131" s="29"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132" s="39"/>
       <c r="B132" s="39"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
       <c r="H132" s="29"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133" s="39"/>
       <c r="B133" s="39"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
       <c r="H133" s="29"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A134" s="39"/>
       <c r="B134" s="39"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
       <c r="H134" s="29"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A135" s="39"/>
       <c r="B135" s="39"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
       <c r="H135" s="29"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A136" s="39"/>
       <c r="B136" s="39"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
       <c r="H136" s="29"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137" s="39"/>
       <c r="B137" s="39"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
       <c r="H137" s="29"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A138" s="39"/>
       <c r="B138" s="39"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
       <c r="H138" s="29"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139" s="39"/>
       <c r="B139" s="39"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
       <c r="H139" s="29"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A140" s="39"/>
       <c r="B140" s="39"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
       <c r="H140" s="29"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141" s="39"/>
       <c r="B141" s="39"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
       <c r="H141" s="29"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142" s="39"/>
       <c r="B142" s="39"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
       <c r="H142" s="29"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143" s="39"/>
       <c r="B143" s="39"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
       <c r="H143" s="29"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A144" s="39"/>
       <c r="B144" s="39"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
       <c r="H144" s="29"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A145" s="39"/>
       <c r="B145" s="39"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
       <c r="H145" s="29"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146" s="39"/>
       <c r="B146" s="39"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
       <c r="H146" s="29"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A147" s="39"/>
       <c r="B147" s="39"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
       <c r="H147" s="29"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A148" s="39"/>
       <c r="B148" s="39"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
       <c r="H148" s="29"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A149" s="39"/>
       <c r="B149" s="39"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
       <c r="H149" s="29"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A150" s="39"/>
       <c r="B150" s="39"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
       <c r="H150" s="29"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A151" s="39"/>
       <c r="B151" s="39"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
       <c r="H151" s="29"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A152" s="39"/>
       <c r="B152" s="39"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
       <c r="H152" s="29"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A153" s="39"/>
       <c r="B153" s="39"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
       <c r="H153" s="29"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A154" s="39"/>
       <c r="B154" s="39"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
       <c r="H154" s="29"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A155" s="39"/>
       <c r="B155" s="39"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
       <c r="H155" s="29"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A156" s="39"/>
       <c r="B156" s="39"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
       <c r="H156" s="29"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A157" s="39"/>
       <c r="B157" s="39"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
       <c r="H157" s="29"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A158" s="39"/>
       <c r="B158" s="39"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
       <c r="H158" s="29"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A159" s="39"/>
       <c r="B159" s="39"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
       <c r="H159" s="29"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A160" s="39"/>
       <c r="B160" s="39"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
       <c r="H160" s="29"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A161" s="39"/>
       <c r="B161" s="39"/>
       <c r="C161" s="28"/>
       <c r="D161" s="28"/>
       <c r="H161" s="29"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A162" s="39"/>
       <c r="B162" s="39"/>
       <c r="C162" s="28"/>
       <c r="D162" s="28"/>
       <c r="H162" s="29"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A163" s="39"/>
       <c r="B163" s="39"/>
       <c r="C163" s="28"/>
       <c r="D163" s="28"/>
       <c r="H163" s="29"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A164" s="39"/>
       <c r="B164" s="39"/>
       <c r="C164" s="28"/>
       <c r="D164" s="28"/>
       <c r="H164" s="29"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A165" s="39"/>
       <c r="B165" s="39"/>
       <c r="C165" s="28"/>
       <c r="D165" s="28"/>
       <c r="H165" s="29"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A166" s="39"/>
       <c r="B166" s="39"/>
       <c r="C166" s="28"/>
       <c r="D166" s="28"/>
       <c r="H166" s="29"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A167" s="39"/>
       <c r="B167" s="39"/>
       <c r="C167" s="28"/>
       <c r="D167" s="28"/>
       <c r="H167" s="29"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A168" s="39"/>
       <c r="B168" s="39"/>
       <c r="C168" s="28"/>
       <c r="D168" s="28"/>
       <c r="H168" s="29"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A169" s="39"/>
       <c r="B169" s="39"/>
       <c r="C169" s="28"/>
       <c r="D169" s="28"/>
       <c r="H169" s="29"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A170" s="39"/>
       <c r="B170" s="39"/>
       <c r="C170" s="28"/>
       <c r="D170" s="28"/>
       <c r="H170" s="29"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A171" s="39"/>
       <c r="B171" s="39"/>
       <c r="H171" s="29"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A172" s="39"/>
       <c r="B172" s="39"/>
       <c r="H172" s="29"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A173" s="39"/>
       <c r="B173" s="39"/>
       <c r="H173" s="29"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A174" s="39"/>
       <c r="B174" s="39"/>
       <c r="H174" s="29"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A175" s="39"/>
       <c r="B175" s="39"/>
       <c r="H175" s="29"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A176" s="39"/>
       <c r="B176" s="39"/>
       <c r="H176" s="29"/>
@@ -4213,7 +4258,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'Container Profiles'!$B$4:$B$15</xm:f>
           </x14:formula1>
@@ -4229,8 +4274,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor indexed="43"/>
   </sheetPr>
   <dimension ref="A1:P7"/>
@@ -4239,20 +4284,20 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="125.5" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="13" thickBot="1">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="27.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4274,7 +4319,7 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:16" ht="30.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -4296,7 +4341,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:16" ht="53.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:16" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -4318,7 +4363,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="24" customHeight="1" thickBot="1">
+    <row r="5" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -4340,7 +4385,7 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" ht="25.5" customHeight="1" thickBot="1">
+    <row r="6" spans="1:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
@@ -4362,7 +4407,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" ht="13" thickBot="1">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -4401,399 +4446,399 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.83203125" style="40" customWidth="1"/>
     <col min="2" max="3" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12" customHeight="1">
+    <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="55" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="57"/>
     </row>
-    <row r="2" spans="1:3" ht="26" customHeight="1">
+    <row r="2" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="58"/>
       <c r="B2" s="59"/>
       <c r="C2" s="60"/>
     </row>
-    <row r="3" spans="1:3" ht="36" customHeight="1">
+    <row r="3" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="41"/>
       <c r="B3" s="42" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="41"/>
     </row>
-    <row r="4" spans="1:3" ht="18">
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.15">
       <c r="A4" s="41"/>
       <c r="C4" s="41"/>
     </row>
-    <row r="5" spans="1:3" ht="18">
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="41"/>
       <c r="B5" s="43" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="18">
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="41"/>
     </row>
-    <row r="7" spans="1:3" ht="18">
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="41"/>
       <c r="B7" s="43" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="41"/>
     </row>
-    <row r="8" spans="1:3" ht="18">
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="41"/>
       <c r="B8" s="43" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="41"/>
     </row>
-    <row r="9" spans="1:3" ht="18">
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="41"/>
       <c r="B9" s="43" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="41"/>
     </row>
-    <row r="10" spans="1:3" ht="18">
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="43" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="41"/>
     </row>
-    <row r="11" spans="1:3" ht="18">
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
       <c r="B11" s="43" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="41"/>
     </row>
-    <row r="12" spans="1:3" ht="18">
+    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="41"/>
       <c r="B12" s="43" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="41"/>
     </row>
-    <row r="13" spans="1:3" ht="18">
+    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="41"/>
       <c r="B13" s="43" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="41"/>
     </row>
-    <row r="14" spans="1:3" ht="18">
+    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="41"/>
       <c r="B14" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="41"/>
     </row>
-    <row r="15" spans="1:3" ht="18">
+    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="41"/>
       <c r="B15" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="41"/>
     </row>
-    <row r="16" spans="1:3" ht="18">
+    <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="41"/>
       <c r="B16" s="43" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="41"/>
     </row>
-    <row r="17" spans="1:3" ht="18">
+    <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="41"/>
       <c r="B17" s="43" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="41"/>
     </row>
-    <row r="18" spans="1:3" ht="18">
+    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="41"/>
       <c r="B18" s="43" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="41"/>
     </row>
-    <row r="19" spans="1:3" ht="18">
+    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="41"/>
       <c r="B19" s="43" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="41"/>
     </row>
-    <row r="20" spans="1:3" ht="18">
+    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="41"/>
       <c r="B20" s="43" t="s">
         <v>64</v>
       </c>
       <c r="C20" s="41"/>
     </row>
-    <row r="21" spans="1:3" ht="18">
+    <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="41"/>
       <c r="B21" s="43" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="41"/>
     </row>
-    <row r="22" spans="1:3" ht="18">
+    <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
       <c r="B22" s="43" t="s">
         <v>66</v>
       </c>
       <c r="C22" s="41"/>
     </row>
-    <row r="23" spans="1:3" ht="18">
+    <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="41"/>
       <c r="B23" s="43" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="41"/>
     </row>
-    <row r="24" spans="1:3" ht="18">
+    <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="41"/>
       <c r="B24" s="43" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="41"/>
     </row>
-    <row r="25" spans="1:3" ht="18">
+    <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="41"/>
       <c r="B25" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="41"/>
     </row>
-    <row r="26" spans="1:3" ht="18">
+    <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="41"/>
       <c r="B26" s="43" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="41"/>
     </row>
-    <row r="27" spans="1:3" ht="18">
+    <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="41"/>
       <c r="B27" s="43" t="s">
         <v>71</v>
       </c>
       <c r="C27" s="41"/>
     </row>
-    <row r="28" spans="1:3" ht="18">
+    <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="41"/>
       <c r="B28" s="43" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="41"/>
     </row>
-    <row r="29" spans="1:3" ht="18">
+    <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
       <c r="B29" s="43" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="41"/>
     </row>
-    <row r="30" spans="1:3" ht="18">
+    <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
       <c r="B30" s="43" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="41"/>
     </row>
-    <row r="31" spans="1:3" ht="18">
+    <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
       <c r="B31" s="43"/>
       <c r="C31" s="41"/>
     </row>
-    <row r="32" spans="1:3" ht="18">
+    <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
       <c r="B32" s="43"/>
       <c r="C32" s="41"/>
     </row>
-    <row r="33" spans="1:3" ht="18">
+    <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="41"/>
       <c r="B33" s="43"/>
       <c r="C33" s="41"/>
     </row>
-    <row r="34" spans="1:3" ht="18">
+    <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="41"/>
       <c r="B34" s="43"/>
       <c r="C34" s="41"/>
     </row>
-    <row r="35" spans="1:3" ht="18">
+    <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A35" s="41"/>
       <c r="B35" s="43"/>
       <c r="C35" s="41"/>
     </row>
-    <row r="36" spans="1:3" ht="18">
+    <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="41"/>
       <c r="B36" s="43"/>
       <c r="C36" s="41"/>
     </row>
-    <row r="37" spans="1:3" ht="18">
+    <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="41"/>
       <c r="B37" s="43"/>
       <c r="C37" s="41"/>
     </row>
-    <row r="38" spans="1:3" ht="18">
+    <row r="38" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="41"/>
       <c r="B38" s="43"/>
       <c r="C38" s="41"/>
     </row>
-    <row r="39" spans="1:3" ht="18">
+    <row r="39" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="41"/>
       <c r="B39" s="43"/>
       <c r="C39" s="41"/>
     </row>
-    <row r="40" spans="1:3" ht="18">
+    <row r="40" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="41"/>
       <c r="B40" s="43"/>
       <c r="C40" s="41"/>
     </row>
-    <row r="41" spans="1:3" ht="18">
+    <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="41"/>
       <c r="B41" s="43"/>
       <c r="C41" s="41"/>
     </row>
-    <row r="42" spans="1:3" ht="18">
+    <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="41"/>
       <c r="B42" s="43"/>
       <c r="C42" s="40"/>
     </row>
-    <row r="43" spans="1:3" ht="18">
+    <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" s="41"/>
       <c r="B43" s="43"/>
       <c r="C43" s="40"/>
     </row>
-    <row r="44" spans="1:3" ht="18">
+    <row r="44" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A44" s="41"/>
       <c r="B44" s="43"/>
       <c r="C44" s="40"/>
     </row>
-    <row r="45" spans="1:3" ht="18">
+    <row r="45" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A45" s="41"/>
       <c r="B45" s="43"/>
       <c r="C45" s="40"/>
     </row>
-    <row r="46" spans="1:3" ht="18">
+    <row r="46" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A46" s="41"/>
       <c r="B46" s="43"/>
       <c r="C46" s="40"/>
     </row>
-    <row r="47" spans="1:3" ht="18">
+    <row r="47" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A47" s="41"/>
       <c r="B47" s="43"/>
       <c r="C47" s="40"/>
     </row>
-    <row r="48" spans="1:3" ht="18">
+    <row r="48" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A48" s="41"/>
       <c r="B48" s="43"/>
       <c r="C48" s="40"/>
     </row>
-    <row r="49" spans="1:3" ht="18">
+    <row r="49" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A49" s="41"/>
       <c r="B49" s="43"/>
       <c r="C49" s="40"/>
     </row>
-    <row r="50" spans="1:3" ht="18">
+    <row r="50" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A50" s="41"/>
       <c r="B50" s="43"/>
       <c r="C50" s="40"/>
     </row>
-    <row r="51" spans="1:3" ht="18">
+    <row r="51" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A51" s="41"/>
       <c r="B51" s="43"/>
       <c r="C51" s="40"/>
     </row>
-    <row r="52" spans="1:3" ht="18">
+    <row r="52" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A52" s="41"/>
       <c r="B52" s="43"/>
       <c r="C52" s="40"/>
     </row>
-    <row r="53" spans="1:3" ht="18">
+    <row r="53" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A53" s="41"/>
       <c r="C53" s="40"/>
     </row>
-    <row r="54" spans="1:3" ht="18">
+    <row r="54" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A54" s="41"/>
       <c r="C54" s="40"/>
     </row>
-    <row r="55" spans="1:3" ht="18">
+    <row r="55" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A55" s="41"/>
       <c r="C55" s="40"/>
     </row>
-    <row r="56" spans="1:3" ht="18">
+    <row r="56" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A56" s="41"/>
       <c r="C56" s="40"/>
     </row>
-    <row r="57" spans="1:3" ht="18">
+    <row r="57" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A57" s="41"/>
       <c r="C57" s="40"/>
     </row>
-    <row r="58" spans="1:3" ht="18">
+    <row r="58" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A58" s="41"/>
       <c r="C58" s="40"/>
     </row>
-    <row r="59" spans="1:3" ht="18">
+    <row r="59" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A59" s="41"/>
       <c r="C59" s="40"/>
     </row>
-    <row r="60" spans="1:3" ht="18">
+    <row r="60" spans="1:3" ht="19" x14ac:dyDescent="0.15">
       <c r="A60" s="41"/>
     </row>
-    <row r="61" spans="1:3" ht="18">
+    <row r="61" spans="1:3" ht="19" x14ac:dyDescent="0.15">
       <c r="A61" s="41"/>
     </row>
-    <row r="62" spans="1:3" ht="18">
+    <row r="62" spans="1:3" ht="19" x14ac:dyDescent="0.15">
       <c r="A62" s="41"/>
     </row>
-    <row r="63" spans="1:3" ht="18">
+    <row r="63" spans="1:3" ht="19" x14ac:dyDescent="0.15">
       <c r="A63" s="41"/>
     </row>
-    <row r="64" spans="1:3" ht="18">
+    <row r="64" spans="1:3" ht="19" x14ac:dyDescent="0.15">
       <c r="A64" s="41"/>
     </row>
-    <row r="65" spans="1:1" ht="18">
+    <row r="65" spans="1:1" ht="19" x14ac:dyDescent="0.15">
       <c r="A65" s="41"/>
     </row>
-    <row r="66" spans="1:1" ht="18">
+    <row r="66" spans="1:1" ht="19" x14ac:dyDescent="0.15">
       <c r="A66" s="41"/>
     </row>
-    <row r="67" spans="1:1" ht="18">
+    <row r="67" spans="1:1" ht="19" x14ac:dyDescent="0.15">
       <c r="A67" s="41"/>
     </row>
-    <row r="68" spans="1:1" ht="18">
+    <row r="68" spans="1:1" ht="19" x14ac:dyDescent="0.15">
       <c r="A68" s="41"/>
     </row>
-    <row r="69" spans="1:1" ht="18">
+    <row r="69" spans="1:1" ht="19" x14ac:dyDescent="0.15">
       <c r="A69" s="41"/>
     </row>
-    <row r="70" spans="1:1" ht="18">
+    <row r="70" spans="1:1" ht="19" x14ac:dyDescent="0.15">
       <c r="A70" s="41"/>
     </row>
-    <row r="71" spans="1:1" ht="18">
+    <row r="71" spans="1:1" ht="19" x14ac:dyDescent="0.15">
       <c r="A71" s="41"/>
     </row>
-    <row r="72" spans="1:1" ht="18">
+    <row r="72" spans="1:1" ht="19" x14ac:dyDescent="0.15">
       <c r="A72" s="41"/>
     </row>
   </sheetData>
